--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/146.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/146.xlsx
@@ -479,13 +479,13 @@
         <v>0.05900083782040506</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.123125808750561</v>
+        <v>-2.104810522255106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3905937461004865</v>
+        <v>0.380430304634248</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09937951813096195</v>
+        <v>-0.09895610698733207</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08085452854767861</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.198265546553653</v>
+        <v>-2.179877068169057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.397626463534458</v>
+        <v>0.3879068954604263</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08070220723760799</v>
+        <v>-0.08036851518389224</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09345532731030159</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.376963150385359</v>
+        <v>-2.349830208772378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3897453497941055</v>
+        <v>0.380963897116369</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03454409650546532</v>
+        <v>-0.03504463458603894</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08289121503149631</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.560469382632639</v>
+        <v>-2.532429806005788</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4576548307635023</v>
+        <v>0.448251640532852</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08545259694569346</v>
+        <v>-0.08800408194132188</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04943624491220865</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.609317492043084</v>
+        <v>-2.576906864316382</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5223627568401736</v>
+        <v>0.5135104733019785</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1304176011838902</v>
+        <v>-0.1340866397556421</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.005182876128764244</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.657431321533443</v>
+        <v>-2.622416479170549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.605581147783341</v>
+        <v>0.5964077643444006</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1386198148249881</v>
+        <v>-0.1428208718597396</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03044179134528697</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.490491640537853</v>
+        <v>-2.458691732230215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7536648667153097</v>
+        <v>0.7454972814948805</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1789572028465608</v>
+        <v>-0.1841530399659744</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03926997029683486</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.036040839835918</v>
+        <v>-2.013249829969045</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8097786483896792</v>
+        <v>0.8015465283852766</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1893425810089027</v>
+        <v>-0.1950169199411917</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.004825451409454353</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.411798235490597</v>
+        <v>-1.399520886344451</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7251751206197673</v>
+        <v>0.7208276798067348</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2149125216344324</v>
+        <v>-0.2212935951521854</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.08391500383026129</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6531084268706948</v>
+        <v>-0.6482809102256656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5975882786853761</v>
+        <v>0.5997116304800107</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2039479044354519</v>
+        <v>-0.2118368882714109</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2255032105089727</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1979605639783445</v>
+        <v>0.1947527130091337</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3995719511683857</v>
+        <v>0.4107726712355614</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08734614194861819</v>
+        <v>-0.09856102818788559</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4096768304681048</v>
       </c>
       <c r="E13" t="n">
-        <v>1.012325002937773</v>
+        <v>1.000892902059766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03981099276565787</v>
+        <v>0.0620833633320626</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02240683506111572</v>
+        <v>-0.03394911727761366</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6212954794270867</v>
       </c>
       <c r="E14" t="n">
-        <v>1.795997643050959</v>
+        <v>1.778861296877359</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3708143935419017</v>
+        <v>-0.3384069138534418</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1412234707319399</v>
+        <v>0.1261065910909681</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8476682924173025</v>
       </c>
       <c r="E15" t="n">
-        <v>2.563092713778607</v>
+        <v>2.536997050766563</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8903327836897247</v>
+        <v>-0.8444036927397313</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3146426014403645</v>
+        <v>0.2946273742939049</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.077026590997482</v>
       </c>
       <c r="E16" t="n">
-        <v>3.148531811736063</v>
+        <v>3.122204767913188</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.406288381556484</v>
+        <v>-1.34848803839364</v>
       </c>
       <c r="G16" t="n">
-        <v>0.517214140294399</v>
+        <v>0.4913923566094613</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.307615228601112</v>
       </c>
       <c r="E17" t="n">
-        <v>3.884193720611337</v>
+        <v>3.85934153270512</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.007050555659802</v>
+        <v>-1.944475425492494</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7316742455716178</v>
+        <v>0.7036992037287406</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.535106395042534</v>
       </c>
       <c r="E18" t="n">
-        <v>4.400113116038305</v>
+        <v>4.372276587878103</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.490256324679219</v>
+        <v>-2.422805670283681</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9829837124976069</v>
+        <v>0.9502692990804934</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.750772926213771</v>
       </c>
       <c r="E19" t="n">
-        <v>4.876126404682938</v>
+        <v>4.853650985649885</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.976544810147702</v>
+        <v>-2.907590180481761</v>
       </c>
       <c r="G19" t="n">
-        <v>1.275072866818254</v>
+        <v>1.238149526270783</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.938730779152893</v>
       </c>
       <c r="E20" t="n">
-        <v>5.190585518755511</v>
+        <v>5.17473199816577</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.435306849222879</v>
+        <v>-3.363770041188445</v>
       </c>
       <c r="G20" t="n">
-        <v>1.484294636459784</v>
+        <v>1.446768446588855</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.092224408959002</v>
       </c>
       <c r="E21" t="n">
-        <v>5.405768098809407</v>
+        <v>5.394886904623855</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.817786412612901</v>
+        <v>-3.754170068796852</v>
       </c>
       <c r="G21" t="n">
-        <v>1.70005802956944</v>
+        <v>1.662113150612244</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.210063218117056</v>
       </c>
       <c r="E22" t="n">
-        <v>5.576157242709328</v>
+        <v>5.56708459649415</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.121539835631947</v>
+        <v>-4.06436516506982</v>
       </c>
       <c r="G22" t="n">
-        <v>1.893542756036206</v>
+        <v>1.857878630785775</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.294952378351482</v>
       </c>
       <c r="E23" t="n">
-        <v>5.822809187055388</v>
+        <v>5.825119847125457</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.30121411832842</v>
+        <v>-4.252779188937316</v>
       </c>
       <c r="G23" t="n">
-        <v>1.970954590440895</v>
+        <v>1.938268509367965</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.345087010445065</v>
       </c>
       <c r="E24" t="n">
-        <v>5.867177638046612</v>
+        <v>5.874227669690917</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.542013072571924</v>
+        <v>-4.498502462001809</v>
       </c>
       <c r="G24" t="n">
-        <v>2.133004581036165</v>
+        <v>2.097488413583136</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.361646298445591</v>
       </c>
       <c r="E25" t="n">
-        <v>5.832797912399162</v>
+        <v>5.846110966127124</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.547888098942178</v>
+        <v>-4.516289665082067</v>
       </c>
       <c r="G25" t="n">
-        <v>2.179985903768747</v>
+        <v>2.148790418803689</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.347413825811241</v>
       </c>
       <c r="E26" t="n">
-        <v>5.833512517080233</v>
+        <v>5.853313677626195</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.561819742184811</v>
+        <v>-4.543407653513396</v>
       </c>
       <c r="G26" t="n">
-        <v>2.21357074975994</v>
+        <v>2.184246773530108</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.31047067203782</v>
       </c>
       <c r="E27" t="n">
-        <v>5.804500196636418</v>
+        <v>5.820042061440141</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.542378245008066</v>
+        <v>-4.533063986857769</v>
       </c>
       <c r="G27" t="n">
-        <v>2.256802758945585</v>
+        <v>2.231536604010466</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.257573974833771</v>
       </c>
       <c r="E28" t="n">
-        <v>5.588399963434804</v>
+        <v>5.606820709211386</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.45255448282236</v>
+        <v>-4.453069187075025</v>
       </c>
       <c r="G28" t="n">
-        <v>2.224927297720125</v>
+        <v>2.199842154983956</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.196029203730921</v>
       </c>
       <c r="E29" t="n">
-        <v>5.376802998939231</v>
+        <v>5.401310476657883</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.234520567130228</v>
+        <v>-4.247004112781264</v>
       </c>
       <c r="G29" t="n">
-        <v>2.190745898481959</v>
+        <v>2.171684526923008</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.128742724254451</v>
       </c>
       <c r="E30" t="n">
-        <v>5.127870300886406</v>
+        <v>5.156111351960783</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.105450999183572</v>
+        <v>-4.119880819478095</v>
       </c>
       <c r="G30" t="n">
-        <v>2.062274457801397</v>
+        <v>2.050230063485204</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.058489842274926</v>
       </c>
       <c r="E31" t="n">
-        <v>4.87471293551201</v>
+        <v>4.910134661817761</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.953996518303338</v>
+        <v>-3.970921158905123</v>
       </c>
       <c r="G31" t="n">
-        <v>1.943969606625316</v>
+        <v>1.932082614221253</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.986544298487888</v>
       </c>
       <c r="E32" t="n">
-        <v>4.616167702685402</v>
+        <v>4.65537337095876</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.797096718272964</v>
+        <v>-3.819907403378853</v>
       </c>
       <c r="G32" t="n">
-        <v>1.818395935147068</v>
+        <v>1.80831749071338</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.91553336411299</v>
       </c>
       <c r="E33" t="n">
-        <v>4.349986903101364</v>
+        <v>4.387217177377489</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.662126152640551</v>
+        <v>-3.682396370884661</v>
       </c>
       <c r="G33" t="n">
-        <v>1.703376061877142</v>
+        <v>1.693710010453234</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.846267869426996</v>
       </c>
       <c r="E34" t="n">
-        <v>4.006358066672846</v>
+        <v>4.040648073230382</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.538989062762077</v>
+        <v>-3.556574004385248</v>
       </c>
       <c r="G34" t="n">
-        <v>1.554801248979327</v>
+        <v>1.548080187331373</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.777490989819532</v>
       </c>
       <c r="E35" t="n">
-        <v>3.689789766977731</v>
+        <v>3.728531099610305</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.377121658384878</v>
+        <v>-3.390818772778437</v>
       </c>
       <c r="G35" t="n">
-        <v>1.414710399145323</v>
+        <v>1.406216991966785</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.707128851584538</v>
       </c>
       <c r="E36" t="n">
-        <v>3.404934804538582</v>
+        <v>3.438747883302363</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.286675371636698</v>
+        <v>-3.298906287218765</v>
       </c>
       <c r="G36" t="n">
-        <v>1.303883712814542</v>
+        <v>1.300054124292418</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.634210315748578</v>
       </c>
       <c r="E37" t="n">
-        <v>3.120068823965583</v>
+        <v>3.152002523898532</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.182844413290538</v>
+        <v>-3.194340261942957</v>
       </c>
       <c r="G37" t="n">
-        <v>1.200557227596758</v>
+        <v>1.191808829320569</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.557391117563194</v>
       </c>
       <c r="E38" t="n">
-        <v>2.814852350173288</v>
+        <v>2.847883141433783</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.048928440469396</v>
+        <v>-3.060340079098826</v>
       </c>
       <c r="G38" t="n">
-        <v>1.110350191755016</v>
+        <v>1.104335864692526</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.478526208625748</v>
       </c>
       <c r="E39" t="n">
-        <v>2.46782205842364</v>
+        <v>2.499861217637716</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.899270702416127</v>
+        <v>-2.911222229604163</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9962652858431421</v>
+        <v>0.987057273983533</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.397811323156603</v>
       </c>
       <c r="E40" t="n">
-        <v>2.172887077531681</v>
+        <v>2.207690214322761</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.762857548259042</v>
+        <v>-2.774003177656972</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9344094824142677</v>
+        <v>0.9280693333936685</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.317763037854102</v>
       </c>
       <c r="E41" t="n">
-        <v>1.967472860144578</v>
+        <v>2.003461233333997</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.66605537229905</v>
+        <v>-2.678076943337984</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7900231343982342</v>
+        <v>0.7864249266869409</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.238158184165274</v>
       </c>
       <c r="E42" t="n">
-        <v>1.711140698202518</v>
+        <v>1.745429130740932</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.540776042396486</v>
+        <v>-2.552769281091236</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7148511292031561</v>
+        <v>0.7096710322749554</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.160832352891332</v>
       </c>
       <c r="E43" t="n">
-        <v>1.442033797071982</v>
+        <v>1.478048928586463</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.423243247599403</v>
+        <v>-2.434417209341516</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6451551365310829</v>
+        <v>0.6437605555896104</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.086440429923205</v>
       </c>
       <c r="E44" t="n">
-        <v>1.188035905486811</v>
+        <v>1.221672694109007</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.351748938081243</v>
+        <v>-2.360967181065141</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6025952335102336</v>
+        <v>0.5958584316710667</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.016584894913274</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9851605809423658</v>
+        <v>1.018262203063319</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.308636554348817</v>
+        <v>-2.317208662483421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5055585287011675</v>
+        <v>0.5035311920729322</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9502285202893183</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7894076929218057</v>
+        <v>0.8191991528306638</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.240423287689009</v>
+        <v>-2.250010638156852</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4198232811830403</v>
+        <v>0.4181170444555504</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8880642828134889</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6115214959471298</v>
+        <v>0.6420354306326649</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.17955360723963</v>
+        <v>-2.18884740314135</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3886183521032542</v>
+        <v>0.387261547620693</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8291792669070855</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4574313200482776</v>
+        <v>0.4879106263131442</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.127114373203937</v>
+        <v>-2.138088434517645</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3312799835525128</v>
+        <v>0.3284467491341715</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7743658716102125</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3607771018856876</v>
+        <v>0.3888339927228724</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.102720224862019</v>
+        <v>-2.10869913649428</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2930722434020598</v>
+        <v>0.2905900152477687</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7237422624491366</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2610094739011648</v>
+        <v>0.2891639539238702</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.029465374956685</v>
+        <v>-2.038743430667192</v>
       </c>
       <c r="G50" t="n">
-        <v>0.26217739608917</v>
+        <v>0.2602980172583369</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.6782305782338928</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1846522323077472</v>
+        <v>0.2097027466232476</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.983597670752422</v>
+        <v>-1.986639462704336</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2121975669305092</v>
+        <v>0.2114861102876813</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6367904490482459</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0945663959383449</v>
+        <v>0.114715414710115</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.954747474278102</v>
+        <v>-1.955506151494569</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1695747031448079</v>
+        <v>0.1679093909144717</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5999904517162215</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06463642234681231</v>
+        <v>0.08172554794677389</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.933641451880581</v>
+        <v>-1.935629438030784</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1147358769586919</v>
+        <v>0.1117389445517354</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5663854057546743</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06290027925601765</v>
+        <v>0.07559002141194381</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.922632762146204</v>
+        <v>-1.921989775335152</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07913156443487035</v>
+        <v>0.07756384139005487</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5361582590165791</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02490975374430426</v>
+        <v>0.03283336600093192</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.909407066479475</v>
+        <v>-1.906031582473846</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05606903626957267</v>
+        <v>0.05274313386626432</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.5085588115352321</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.02869504145071196</v>
+        <v>-0.02398715025890161</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.965911991905488</v>
+        <v>-1.960055853764688</v>
       </c>
       <c r="G56" t="n">
-        <v>0.003754936754023016</v>
+        <v>-0.0007593500858673563</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4827747667784549</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.02359994155506164</v>
+        <v>-0.02085800024575584</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.000527033411572</v>
+        <v>-1.990899545456136</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.004365427892767232</v>
+        <v>-0.008783699566258263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4583573509333033</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1177498952956623</v>
+        <v>-0.1160279183769593</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.97860881714746</v>
+        <v>-1.96977542183872</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01952480605001415</v>
+        <v>-0.02362669988012375</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4357443586282932</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.174995396718247</v>
+        <v>-0.1749072516474542</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.027101198236491</v>
+        <v>-2.01463575380535</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.07241027450659597</v>
+        <v>-0.07710872158367851</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.4149371667099673</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2438492891604243</v>
+        <v>-0.2461363389436742</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.058221130283727</v>
+        <v>-2.040903771911177</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07903846902639317</v>
+        <v>-0.08400449935409683</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3967050100654065</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2880099696276364</v>
+        <v>-0.2903772943860726</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.124071794242463</v>
+        <v>-2.10487505703908</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.09829659297550708</v>
+        <v>-0.1052805158167182</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3804289566481544</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3850482484558237</v>
+        <v>-0.3885504410007178</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.171931419644731</v>
+        <v>-2.14796933955161</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1111925316363236</v>
+        <v>-0.1160184742622315</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3654380068089739</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4523186776619726</v>
+        <v>-0.4603383050849996</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.222338594994825</v>
+        <v>-2.198792055949728</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1455596651308028</v>
+        <v>-0.1506846713897579</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3505077027426271</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5379122634591826</v>
+        <v>-0.5421353567616324</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.281500464697594</v>
+        <v>-2.260205560005517</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2076972179823901</v>
+        <v>-0.2150557573744708</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3333707787810146</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6291738921121965</v>
+        <v>-0.6339227078011608</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.286981986287523</v>
+        <v>-2.268677717925918</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2158506370307277</v>
+        <v>-0.2224142967665515</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3130786402519568</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.7294231699478374</v>
+        <v>-0.731012929260351</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.293326070355926</v>
+        <v>-2.272679661541825</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2686101839576054</v>
+        <v>-0.2764330589904698</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2885823007650606</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.762583030776279</v>
+        <v>-0.7669745441247079</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.2843163849056</v>
+        <v>-2.266292291947587</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.308952294036542</v>
+        <v>-0.3177510609246129</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2595985631178009</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.8188793986687194</v>
+        <v>-0.8220116967201078</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.318354548403728</v>
+        <v>-2.298821758117947</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3340138264858916</v>
+        <v>-0.3399825069938638</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2271411993670839</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8240579215777986</v>
+        <v>-0.8251896413260138</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.372198594505182</v>
+        <v>-2.354829293501629</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3532058416319109</v>
+        <v>-0.3615953635484435</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1925733150486326</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8390394355743386</v>
+        <v>-0.8390016591154273</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.37013899048496</v>
+        <v>-2.353937611669412</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4225240697148718</v>
+        <v>-0.4283967350564447</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1575922655739096</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7556793829102542</v>
+        <v>-0.7563782474001116</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.32893431792755</v>
+        <v>-2.317446339370737</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4443635850229189</v>
+        <v>-0.4494980353966017</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1233675541054483</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7233269938910398</v>
+        <v>-0.7271849147573478</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.339734450128355</v>
+        <v>-2.325377034713411</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4517079582429079</v>
+        <v>-0.4591294583998407</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.09144815303003544</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5704944592701069</v>
+        <v>-0.5733198235928416</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.35308842835347</v>
+        <v>-2.337458418478954</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4616132605732531</v>
+        <v>-0.4690268906345794</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.0631177767177893</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3911066480537101</v>
+        <v>-0.3984352810824861</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.396900463585314</v>
+        <v>-2.377366099280412</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4882377940100543</v>
+        <v>-0.4948848767593071</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.03976784052578574</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2482250623176402</v>
+        <v>-0.2572363217870866</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.363167659796719</v>
+        <v>-2.342028582997651</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4858405628883133</v>
+        <v>-0.4922389506164006</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.0232597822443404</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.08085960914973805</v>
+        <v>-0.09203042285360905</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.345601606403004</v>
+        <v>-2.324655346946295</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5029895012148843</v>
+        <v>-0.508840130288759</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.01399923688896657</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1641742435396252</v>
+        <v>0.1522085501794974</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.309621103309191</v>
+        <v>-2.289318617673094</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4646999120701238</v>
+        <v>-0.4705662813352114</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.01178316558698195</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3641958714171527</v>
+        <v>0.3533618978052401</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.344709924570787</v>
+        <v>-2.325378608732532</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4515914808279317</v>
+        <v>-0.4568660189034103</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.01599154310491728</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6413113818368666</v>
+        <v>0.6282973917419525</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.269840131046998</v>
+        <v>-2.25316654649506</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4622161098967113</v>
+        <v>-0.4666029011877763</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.02508307243860105</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8676144069827517</v>
+        <v>0.8510210974059998</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.152028734865445</v>
+        <v>-2.138481939297971</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4127132085318047</v>
+        <v>-0.4180475593338927</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.03731313245089193</v>
       </c>
       <c r="E81" t="n">
-        <v>1.094857121544053</v>
+        <v>1.077516152884684</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.130406434196137</v>
+        <v>-2.116355165500286</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3630859596563153</v>
+        <v>-0.3662953846446474</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.05140309062927369</v>
       </c>
       <c r="E82" t="n">
-        <v>1.352417018400727</v>
+        <v>1.337344211295152</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.998402894607376</v>
+        <v>-1.98268788770031</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2990438436679542</v>
+        <v>-0.3042869013610068</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.06538897452690269</v>
       </c>
       <c r="E83" t="n">
-        <v>1.622457312870195</v>
+        <v>1.606224453672221</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.95964660879315</v>
+        <v>-1.944469916425569</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2985307134344102</v>
+        <v>-0.3005832343685862</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.07734804109070899</v>
       </c>
       <c r="E84" t="n">
-        <v>1.901000458632928</v>
+        <v>1.877364987507477</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.834260245590337</v>
+        <v>-1.823756028984337</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2429961707966793</v>
+        <v>-0.2486185670979654</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.08502986033976254</v>
       </c>
       <c r="E85" t="n">
-        <v>2.134896552019968</v>
+        <v>2.108782000778468</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.70031279238677</v>
+        <v>-1.69376565985172</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.198619849709849</v>
+        <v>-0.2007809779633949</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08722322513798533</v>
       </c>
       <c r="E86" t="n">
-        <v>2.320544237281778</v>
+        <v>2.292421237641498</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.52084785423343</v>
+        <v>-1.519336795876981</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1750772457125546</v>
+        <v>-0.1775091052549642</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08171608085904926</v>
       </c>
       <c r="E87" t="n">
-        <v>2.558302973592489</v>
+        <v>2.527480531159179</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.376011336748704</v>
+        <v>-1.380975793057287</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1597305592798729</v>
+        <v>-0.1607111731924432</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06684463345525997</v>
       </c>
       <c r="E88" t="n">
-        <v>2.66828126361689</v>
+        <v>2.636701717986234</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.151275247638074</v>
+        <v>-1.16199195682545</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1434851079289285</v>
+        <v>-0.1430774369765117</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04054294482697825</v>
       </c>
       <c r="E89" t="n">
-        <v>2.772040604093031</v>
+        <v>2.735032266513009</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9353308423294687</v>
+        <v>-0.9508018762727333</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1480198570173958</v>
+        <v>-0.1464804663167637</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.002593169353958632</v>
       </c>
       <c r="E90" t="n">
-        <v>2.851072104173539</v>
+        <v>2.817353466557035</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7409874884320335</v>
+        <v>-0.7570566496413922</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1102701564312414</v>
+        <v>-0.107378683305412</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04548940645928424</v>
       </c>
       <c r="E91" t="n">
-        <v>2.895037606269709</v>
+        <v>2.857528730609113</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5850541361421383</v>
+        <v>-0.5999254688001872</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1817337725765352</v>
+        <v>-0.1767362618664056</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09954019040471215</v>
       </c>
       <c r="E92" t="n">
-        <v>2.909760981130356</v>
+        <v>2.87648779092518</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3740348366640829</v>
+        <v>-0.3903290826077876</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1351396585477923</v>
+        <v>-0.1298430842046155</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1552862503313557</v>
       </c>
       <c r="E93" t="n">
-        <v>2.859316816330912</v>
+        <v>2.826106586890588</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2527755515973205</v>
+        <v>-0.2671101437350059</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1405086377705489</v>
+        <v>-0.1339434040156038</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2118030686145372</v>
       </c>
       <c r="E94" t="n">
-        <v>2.804622799903955</v>
+        <v>2.772656045569459</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09856417622612819</v>
+        <v>-0.1143169595921055</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1664799532720103</v>
+        <v>-0.1603349826224524</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2697744779699736</v>
       </c>
       <c r="E95" t="n">
-        <v>2.672195849171564</v>
+        <v>2.641960515870499</v>
       </c>
       <c r="F95" t="n">
-        <v>0.06449948268325915</v>
+        <v>0.05044191791092272</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.144508220357774</v>
+        <v>-0.1411854659927082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3275122323318051</v>
       </c>
       <c r="E96" t="n">
-        <v>2.517454029356494</v>
+        <v>2.491739278971804</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1193823814047715</v>
+        <v>0.1092929188372341</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1776177125743339</v>
+        <v>-0.1733473986982452</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3849371926202661</v>
       </c>
       <c r="E97" t="n">
-        <v>2.308254295982662</v>
+        <v>2.281259868052355</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1379621031126049</v>
+        <v>0.1284518795817061</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2122697435297686</v>
+        <v>-0.2063640237866484</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4389257288543015</v>
       </c>
       <c r="E98" t="n">
-        <v>2.139539908427805</v>
+        <v>2.114926971428026</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1765381637374421</v>
+        <v>0.1688396362151605</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2203680719088606</v>
+        <v>-0.2130221246697503</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4884950539761012</v>
       </c>
       <c r="E99" t="n">
-        <v>1.989359596026264</v>
+        <v>1.965149607921538</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1965045962911413</v>
+        <v>0.1904084202343438</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2623770682372547</v>
+        <v>-0.2568349469111549</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5292522617161555</v>
       </c>
       <c r="E100" t="n">
-        <v>1.773443523061842</v>
+        <v>1.752208431096374</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2113853730639181</v>
+        <v>0.2063736961816967</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2870057454282465</v>
+        <v>-0.279124631687894</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5586826713421741</v>
       </c>
       <c r="E101" t="n">
-        <v>1.639499217896517</v>
+        <v>1.619304552570229</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2197969312481489</v>
+        <v>0.2173587756292542</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3315630787140264</v>
+        <v>-0.322468396231151</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.56904621907116</v>
       </c>
       <c r="E102" t="n">
-        <v>1.403786706443497</v>
+        <v>1.386145100131958</v>
       </c>
       <c r="F102" t="n">
-        <v>0.221498445918275</v>
+        <v>0.2188147433164573</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3295168538563355</v>
+        <v>-0.3220701693934619</v>
       </c>
     </row>
   </sheetData>
